--- a/stock/data/크래프톤.xlsx
+++ b/stock/data/크래프톤.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G650"/>
+  <dimension ref="A1:G683"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15395,10 +15395,769 @@
         <v>247000</v>
       </c>
       <c r="F650" t="n">
-        <v>104088</v>
+        <v>104447</v>
       </c>
       <c r="G650" t="n">
         <v>-1.2</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B651" t="n">
+        <v>252000</v>
+      </c>
+      <c r="C651" t="n">
+        <v>253500</v>
+      </c>
+      <c r="D651" t="n">
+        <v>248000</v>
+      </c>
+      <c r="E651" t="n">
+        <v>250500</v>
+      </c>
+      <c r="F651" t="n">
+        <v>74153</v>
+      </c>
+      <c r="G651" t="n">
+        <v>1.417004048582996</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="B652" t="n">
+        <v>246000</v>
+      </c>
+      <c r="C652" t="n">
+        <v>257500</v>
+      </c>
+      <c r="D652" t="n">
+        <v>244500</v>
+      </c>
+      <c r="E652" t="n">
+        <v>252000</v>
+      </c>
+      <c r="F652" t="n">
+        <v>122469</v>
+      </c>
+      <c r="G652" t="n">
+        <v>0.5988023952095809</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="B653" t="n">
+        <v>250000</v>
+      </c>
+      <c r="C653" t="n">
+        <v>256000</v>
+      </c>
+      <c r="D653" t="n">
+        <v>249000</v>
+      </c>
+      <c r="E653" t="n">
+        <v>253500</v>
+      </c>
+      <c r="F653" t="n">
+        <v>92064</v>
+      </c>
+      <c r="G653" t="n">
+        <v>0.5952380952380952</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="B654" t="n">
+        <v>255500</v>
+      </c>
+      <c r="C654" t="n">
+        <v>260000</v>
+      </c>
+      <c r="D654" t="n">
+        <v>250000</v>
+      </c>
+      <c r="E654" t="n">
+        <v>253000</v>
+      </c>
+      <c r="F654" t="n">
+        <v>104001</v>
+      </c>
+      <c r="G654" t="n">
+        <v>-0.1972386587771203</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="B655" t="n">
+        <v>249500</v>
+      </c>
+      <c r="C655" t="n">
+        <v>253000</v>
+      </c>
+      <c r="D655" t="n">
+        <v>248500</v>
+      </c>
+      <c r="E655" t="n">
+        <v>249500</v>
+      </c>
+      <c r="F655" t="n">
+        <v>39956</v>
+      </c>
+      <c r="G655" t="n">
+        <v>-1.383399209486166</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B656" t="n">
+        <v>248500</v>
+      </c>
+      <c r="C656" t="n">
+        <v>251500</v>
+      </c>
+      <c r="D656" t="n">
+        <v>243500</v>
+      </c>
+      <c r="E656" t="n">
+        <v>243500</v>
+      </c>
+      <c r="F656" t="n">
+        <v>66121</v>
+      </c>
+      <c r="G656" t="n">
+        <v>-2.404809619238477</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="B657" t="n">
+        <v>247000</v>
+      </c>
+      <c r="C657" t="n">
+        <v>249500</v>
+      </c>
+      <c r="D657" t="n">
+        <v>239000</v>
+      </c>
+      <c r="E657" t="n">
+        <v>242000</v>
+      </c>
+      <c r="F657" t="n">
+        <v>55846</v>
+      </c>
+      <c r="G657" t="n">
+        <v>-0.6160164271047228</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="B658" t="n">
+        <v>237500</v>
+      </c>
+      <c r="C658" t="n">
+        <v>248000</v>
+      </c>
+      <c r="D658" t="n">
+        <v>237000</v>
+      </c>
+      <c r="E658" t="n">
+        <v>247500</v>
+      </c>
+      <c r="F658" t="n">
+        <v>109169</v>
+      </c>
+      <c r="G658" t="n">
+        <v>2.272727272727273</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="B659" t="n">
+        <v>244500</v>
+      </c>
+      <c r="C659" t="n">
+        <v>247000</v>
+      </c>
+      <c r="D659" t="n">
+        <v>237000</v>
+      </c>
+      <c r="E659" t="n">
+        <v>238500</v>
+      </c>
+      <c r="F659" t="n">
+        <v>86884</v>
+      </c>
+      <c r="G659" t="n">
+        <v>-3.636363636363636</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="B660" t="n">
+        <v>235500</v>
+      </c>
+      <c r="C660" t="n">
+        <v>247500</v>
+      </c>
+      <c r="D660" t="n">
+        <v>231000</v>
+      </c>
+      <c r="E660" t="n">
+        <v>247000</v>
+      </c>
+      <c r="F660" t="n">
+        <v>86107</v>
+      </c>
+      <c r="G660" t="n">
+        <v>3.563941299790356</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="2" t="n">
+        <v>45398</v>
+      </c>
+      <c r="B661" t="n">
+        <v>244000</v>
+      </c>
+      <c r="C661" t="n">
+        <v>255000</v>
+      </c>
+      <c r="D661" t="n">
+        <v>242500</v>
+      </c>
+      <c r="E661" t="n">
+        <v>254000</v>
+      </c>
+      <c r="F661" t="n">
+        <v>126646</v>
+      </c>
+      <c r="G661" t="n">
+        <v>2.834008097165992</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="2" t="n">
+        <v>45399</v>
+      </c>
+      <c r="B662" t="n">
+        <v>254500</v>
+      </c>
+      <c r="C662" t="n">
+        <v>257500</v>
+      </c>
+      <c r="D662" t="n">
+        <v>249000</v>
+      </c>
+      <c r="E662" t="n">
+        <v>253000</v>
+      </c>
+      <c r="F662" t="n">
+        <v>100673</v>
+      </c>
+      <c r="G662" t="n">
+        <v>-0.3937007874015748</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="2" t="n">
+        <v>45400</v>
+      </c>
+      <c r="B663" t="n">
+        <v>255500</v>
+      </c>
+      <c r="C663" t="n">
+        <v>262000</v>
+      </c>
+      <c r="D663" t="n">
+        <v>252500</v>
+      </c>
+      <c r="E663" t="n">
+        <v>260000</v>
+      </c>
+      <c r="F663" t="n">
+        <v>126476</v>
+      </c>
+      <c r="G663" t="n">
+        <v>2.766798418972332</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="B664" t="n">
+        <v>256000</v>
+      </c>
+      <c r="C664" t="n">
+        <v>261500</v>
+      </c>
+      <c r="D664" t="n">
+        <v>250500</v>
+      </c>
+      <c r="E664" t="n">
+        <v>254000</v>
+      </c>
+      <c r="F664" t="n">
+        <v>124042</v>
+      </c>
+      <c r="G664" t="n">
+        <v>-2.307692307692308</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B665" t="n">
+        <v>258000</v>
+      </c>
+      <c r="C665" t="n">
+        <v>262500</v>
+      </c>
+      <c r="D665" t="n">
+        <v>254000</v>
+      </c>
+      <c r="E665" t="n">
+        <v>259000</v>
+      </c>
+      <c r="F665" t="n">
+        <v>72912</v>
+      </c>
+      <c r="G665" t="n">
+        <v>1.968503937007874</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="2" t="n">
+        <v>45405</v>
+      </c>
+      <c r="B666" t="n">
+        <v>243500</v>
+      </c>
+      <c r="C666" t="n">
+        <v>247000</v>
+      </c>
+      <c r="D666" t="n">
+        <v>232000</v>
+      </c>
+      <c r="E666" t="n">
+        <v>238000</v>
+      </c>
+      <c r="F666" t="n">
+        <v>1619683</v>
+      </c>
+      <c r="G666" t="n">
+        <v>-8.108108108108109</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="2" t="n">
+        <v>45406</v>
+      </c>
+      <c r="B667" t="n">
+        <v>240000</v>
+      </c>
+      <c r="C667" t="n">
+        <v>245500</v>
+      </c>
+      <c r="D667" t="n">
+        <v>239500</v>
+      </c>
+      <c r="E667" t="n">
+        <v>240000</v>
+      </c>
+      <c r="F667" t="n">
+        <v>263898</v>
+      </c>
+      <c r="G667" t="n">
+        <v>0.8403361344537815</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="2" t="n">
+        <v>45407</v>
+      </c>
+      <c r="B668" t="n">
+        <v>237500</v>
+      </c>
+      <c r="C668" t="n">
+        <v>238000</v>
+      </c>
+      <c r="D668" t="n">
+        <v>225000</v>
+      </c>
+      <c r="E668" t="n">
+        <v>225500</v>
+      </c>
+      <c r="F668" t="n">
+        <v>320859</v>
+      </c>
+      <c r="G668" t="n">
+        <v>-6.041666666666667</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="B669" t="n">
+        <v>227500</v>
+      </c>
+      <c r="C669" t="n">
+        <v>232500</v>
+      </c>
+      <c r="D669" t="n">
+        <v>227000</v>
+      </c>
+      <c r="E669" t="n">
+        <v>229500</v>
+      </c>
+      <c r="F669" t="n">
+        <v>176318</v>
+      </c>
+      <c r="G669" t="n">
+        <v>1.773835920177384</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="B670" t="n">
+        <v>231500</v>
+      </c>
+      <c r="C670" t="n">
+        <v>241000</v>
+      </c>
+      <c r="D670" t="n">
+        <v>231500</v>
+      </c>
+      <c r="E670" t="n">
+        <v>240000</v>
+      </c>
+      <c r="F670" t="n">
+        <v>148646</v>
+      </c>
+      <c r="G670" t="n">
+        <v>4.57516339869281</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B671" t="n">
+        <v>238500</v>
+      </c>
+      <c r="C671" t="n">
+        <v>245000</v>
+      </c>
+      <c r="D671" t="n">
+        <v>238500</v>
+      </c>
+      <c r="E671" t="n">
+        <v>239500</v>
+      </c>
+      <c r="F671" t="n">
+        <v>122430</v>
+      </c>
+      <c r="G671" t="n">
+        <v>-0.2083333333333333</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B672" t="n">
+        <v>237000</v>
+      </c>
+      <c r="C672" t="n">
+        <v>245500</v>
+      </c>
+      <c r="D672" t="n">
+        <v>236500</v>
+      </c>
+      <c r="E672" t="n">
+        <v>243000</v>
+      </c>
+      <c r="F672" t="n">
+        <v>119352</v>
+      </c>
+      <c r="G672" t="n">
+        <v>1.461377870563674</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="B673" t="n">
+        <v>244500</v>
+      </c>
+      <c r="C673" t="n">
+        <v>253500</v>
+      </c>
+      <c r="D673" t="n">
+        <v>243500</v>
+      </c>
+      <c r="E673" t="n">
+        <v>251000</v>
+      </c>
+      <c r="F673" t="n">
+        <v>159261</v>
+      </c>
+      <c r="G673" t="n">
+        <v>3.292181069958848</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="2" t="n">
+        <v>45419</v>
+      </c>
+      <c r="B674" t="n">
+        <v>254000</v>
+      </c>
+      <c r="C674" t="n">
+        <v>260500</v>
+      </c>
+      <c r="D674" t="n">
+        <v>254000</v>
+      </c>
+      <c r="E674" t="n">
+        <v>257500</v>
+      </c>
+      <c r="F674" t="n">
+        <v>192672</v>
+      </c>
+      <c r="G674" t="n">
+        <v>2.589641434262948</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="2" t="n">
+        <v>45420</v>
+      </c>
+      <c r="B675" t="n">
+        <v>260000</v>
+      </c>
+      <c r="C675" t="n">
+        <v>265500</v>
+      </c>
+      <c r="D675" t="n">
+        <v>258500</v>
+      </c>
+      <c r="E675" t="n">
+        <v>260000</v>
+      </c>
+      <c r="F675" t="n">
+        <v>212701</v>
+      </c>
+      <c r="G675" t="n">
+        <v>0.9708737864077669</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="2" t="n">
+        <v>45421</v>
+      </c>
+      <c r="B676" t="n">
+        <v>269000</v>
+      </c>
+      <c r="C676" t="n">
+        <v>271000</v>
+      </c>
+      <c r="D676" t="n">
+        <v>255000</v>
+      </c>
+      <c r="E676" t="n">
+        <v>263500</v>
+      </c>
+      <c r="F676" t="n">
+        <v>430254</v>
+      </c>
+      <c r="G676" t="n">
+        <v>1.346153846153846</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="B677" t="n">
+        <v>265000</v>
+      </c>
+      <c r="C677" t="n">
+        <v>267500</v>
+      </c>
+      <c r="D677" t="n">
+        <v>258000</v>
+      </c>
+      <c r="E677" t="n">
+        <v>259000</v>
+      </c>
+      <c r="F677" t="n">
+        <v>187175</v>
+      </c>
+      <c r="G677" t="n">
+        <v>-1.707779886148008</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B678" t="n">
+        <v>258500</v>
+      </c>
+      <c r="C678" t="n">
+        <v>260000</v>
+      </c>
+      <c r="D678" t="n">
+        <v>249500</v>
+      </c>
+      <c r="E678" t="n">
+        <v>259500</v>
+      </c>
+      <c r="F678" t="n">
+        <v>179601</v>
+      </c>
+      <c r="G678" t="n">
+        <v>0.1930501930501931</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="2" t="n">
+        <v>45426</v>
+      </c>
+      <c r="B679" t="n">
+        <v>260000</v>
+      </c>
+      <c r="C679" t="n">
+        <v>265000</v>
+      </c>
+      <c r="D679" t="n">
+        <v>255000</v>
+      </c>
+      <c r="E679" t="n">
+        <v>257000</v>
+      </c>
+      <c r="F679" t="n">
+        <v>112229</v>
+      </c>
+      <c r="G679" t="n">
+        <v>-0.9633911368015413</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="B680" t="n">
+        <v>260500</v>
+      </c>
+      <c r="C680" t="n">
+        <v>262000</v>
+      </c>
+      <c r="D680" t="n">
+        <v>256500</v>
+      </c>
+      <c r="E680" t="n">
+        <v>258500</v>
+      </c>
+      <c r="F680" t="n">
+        <v>122777</v>
+      </c>
+      <c r="G680" t="n">
+        <v>0.5836575875486382</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="B681" t="n">
+        <v>257500</v>
+      </c>
+      <c r="C681" t="n">
+        <v>260000</v>
+      </c>
+      <c r="D681" t="n">
+        <v>256000</v>
+      </c>
+      <c r="E681" t="n">
+        <v>258000</v>
+      </c>
+      <c r="F681" t="n">
+        <v>74960</v>
+      </c>
+      <c r="G681" t="n">
+        <v>-0.1934235976789168</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B682" t="n">
+        <v>260000</v>
+      </c>
+      <c r="C682" t="n">
+        <v>260000</v>
+      </c>
+      <c r="D682" t="n">
+        <v>251000</v>
+      </c>
+      <c r="E682" t="n">
+        <v>252500</v>
+      </c>
+      <c r="F682" t="n">
+        <v>90498</v>
+      </c>
+      <c r="G682" t="n">
+        <v>-2.131782945736434</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="B683" t="n">
+        <v>250000</v>
+      </c>
+      <c r="C683" t="n">
+        <v>254000</v>
+      </c>
+      <c r="D683" t="n">
+        <v>247500</v>
+      </c>
+      <c r="E683" t="n">
+        <v>252500</v>
+      </c>
+      <c r="F683" t="n">
+        <v>75472</v>
+      </c>
+      <c r="G683" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
